--- a/WSDM-KKBox'sChurnPredictionChallenge/records/records.xlsx
+++ b/WSDM-KKBox'sChurnPredictionChallenge/records/records.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="xbg调参记录" sheetId="1" r:id="rId1"/>
-    <sheet name="kernel记录" sheetId="2" r:id="rId2"/>
+    <sheet name="数据探索记录" sheetId="3" r:id="rId1"/>
+    <sheet name="xbg调参记录" sheetId="1" r:id="rId2"/>
+    <sheet name="kernel记录" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t xml:space="preserve">        'max_depth': 7,</t>
   </si>
@@ -172,11 +173,6 @@
   </si>
   <si>
     <t>https://www.kaggle.com/loveall/make-user-log-and-transactions-features-lb-0-20/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过分析每一列的数据格式，计算数据的范围，
-主要使用将str转为整数来降低内存消耗，可以将内存消耗降低50%左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +194,33 @@
   <si>
     <t>利用xgb跑出来特征重要性，可以发现几个时间非常重要
 其次是交易次数，交易方式等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过分析每一列的数据格式，计算数据的范围，
+主要使用将int64转为int8或int32来降低内存消耗，可以将内存消耗降低50%左右
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 992931条数据，94%为  6%为 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. gender 60%数据缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 与train合并以后，有116788条数据为空，（12%）
+说明人数两个训练集不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +290,53 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,7 +377,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,12 +393,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -612,6 +695,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="58.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A16:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -897,73 +1047,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.109375" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="79.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="50.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
